--- a/biology/Zoologie/Centromerus/Centromerus.xlsx
+++ b/biology/Zoologie/Centromerus/Centromerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centromerus est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centromerus est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Asie, en Afrique du Nord, en Amérique du Nord et en Micronésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Asie, en Afrique du Nord, en Amérique du Nord et en Micronésie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 28/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 28/02/2024) :
 Centromerus abditus Gnelitsa, 2007
 Centromerus acutidentatus Deltshev, 2002
 Centromerus alatus Irfan, Wang &amp; Zhang, 2023
@@ -665,13 +681,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Dahl en 1886.
-Parasintula[2] a été placé en synonymie par Lessert en 1910[3].
-Cryptocleptes[4], Tapinasta[5] et Rhabdoria[6] ont été placés en synonymie par Simon en 1929[7].
-Adoxoneta[7] a été placé en synonymie par Fage en 1931[8].
-Atopogyna[9] a été placé en synonymie par en Eskov &amp; Marusik, 1992[10].
+Parasintula a été placé en synonymie par Lessert en 1910.
+Cryptocleptes, Tapinasta et Rhabdoria ont été placés en synonymie par Simon en 1929.
+Adoxoneta a été placé en synonymie par Fage en 1931.
+Atopogyna a été placé en synonymie par en Eskov &amp; Marusik, 1992.
 </t>
         </is>
       </c>
@@ -700,7 +718,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dahl, 1886 : « Monographie der Erigone-Arten im Thorell schen. Sinne, nebst andern Beiträgen zur Spinnenfauna Schleswig-Holsteins. » Schriften des Naturwissenschaftlichen Vereins für Schleswig-Holstein, vol. 6, p. 65-102.</t>
         </is>
